--- a/medicine/Psychotrope/Microbrasserie_de_Bellechasse/Microbrasserie_de_Bellechasse.xlsx
+++ b/medicine/Psychotrope/Microbrasserie_de_Bellechasse/Microbrasserie_de_Bellechasse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Microbrasserie de Bellechasse est une coopérative brassicole située en plein cœur du village de Notre-Dame-Auxiliatrice-de-Buckland, au Québec (Canada)[1]. Son président en 2018 est le maître-brasseur[2] Gabriel Paquet[3].
+La Microbrasserie de Bellechasse est une coopérative brassicole située en plein cœur du village de Notre-Dame-Auxiliatrice-de-Buckland, au Québec (Canada). Son président en 2018 est le maître-brasseur Gabriel Paquet.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Structure démocratique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Microbrasserie de Bellechasse ainsi que le Pub de la Contrée sont administrés par La Brasserie de la Contrée de Bellechasse, coop de solidarité[4]. À la fondation, il s'agissait d'une coopérative de solidarité ayant trois niveaux de membres: membre-travailleur, membre-producteur et membre de soutien[5] mais depuis 2023, la structure a changée pour coopérative de travailleur. [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Microbrasserie de Bellechasse ainsi que le Pub de la Contrée sont administrés par La Brasserie de la Contrée de Bellechasse, coop de solidarité. À la fondation, il s'agissait d'une coopérative de solidarité ayant trois niveaux de membres: membre-travailleur, membre-producteur et membre de soutien mais depuis 2023, la structure a changée pour coopérative de travailleur. 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coopérative fut constituée le 28 janvier 2013[4] et l'inauguration officielle fut tenue le 7 novembre 2013 au Pub de la Contrée[6]. La Microbrasserie de Bellechasse est le premier projet issu de la Contrée en Montagne dans Bellechasse[7], un organisme à but non lucratif dont l'objectif est de revitaliser le territoire de la Contrée en Montagne dans Bellechasse, composée des villages de St-Léon, St-Nazaire, Buckland et St-Philémon[8]. Elle est ouverte depuis automne 2013[2]. 
-Ses dirigeants ont été les co-présidents d'honneur du Défi OSEntreprendre Chaudière-Appalaches en 2023.[2][9]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coopérative fut constituée le 28 janvier 2013 et l'inauguration officielle fut tenue le 7 novembre 2013 au Pub de la Contrée. La Microbrasserie de Bellechasse est le premier projet issu de la Contrée en Montagne dans Bellechasse, un organisme à but non lucratif dont l'objectif est de revitaliser le territoire de la Contrée en Montagne dans Bellechasse, composée des villages de St-Léon, St-Nazaire, Buckland et St-Philémon. Elle est ouverte depuis automne 2013. 
+Ses dirigeants ont été les co-présidents d'honneur du Défi OSEntreprendre Chaudière-Appalaches en 2023.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Microbrasserie de Bellechasse ainsi que le Pub de la Contrée sont situés dans d'anciens locaux de la caisse Desjardins. Le décor du pub a été entièrement revitalisé par l'artiste Aurélien Biet[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Microbrasserie de Bellechasse ainsi que le Pub de la Contrée sont situés dans d'anciens locaux de la caisse Desjardins. Le décor du pub a été entièrement revitalisé par l'artiste Aurélien Biet.
 </t>
         </is>
       </c>
@@ -606,13 +624,15 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix des Offices jeunesse internationaux du Québec (LOJIQ) dans la catégorie « Développement régional » en 2014[3].
-Prix RateBeer de la meilleure nouvelle microbrasserie au Québec 2014[11].
-Médaille d'Argent au Prix du Public 2015 pour la bouteille de St-Michel (triple blonde Belge)[12].
-Médaille d'Or au Prix du Public 2017 pour la bouteille de St-Michel (triple blonde Belge)[13].
-Lauréat régional Réussite inc. 2022 du concours Ose entreprendre.[3]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix des Offices jeunesse internationaux du Québec (LOJIQ) dans la catégorie « Développement régional » en 2014.
+Prix RateBeer de la meilleure nouvelle microbrasserie au Québec 2014.
+Médaille d'Argent au Prix du Public 2015 pour la bouteille de St-Michel (triple blonde Belge).
+Médaille d'Or au Prix du Public 2017 pour la bouteille de St-Michel (triple blonde Belge).
+Lauréat régional Réussite inc. 2022 du concours Ose entreprendre.</t>
         </is>
       </c>
     </row>
@@ -640,9 +660,11 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les produits suivants ont été mis en marché[14]:
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les produits suivants ont été mis en marché:
 La Rochdale (collaboration avec La Barberie / Le Temps d’une pinte et À la fût)
 La Saint-Joseph (collaboration avec Le Griendel)
 Les Grands Bois Session India Pale Lager
